--- a/Server/Server/GameData/Meow_Mode.xlsx
+++ b/Server/Server/GameData/Meow_Mode.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271904BA-89CC-49AE-9A59-D078053D5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A81D5D-996B-4C64-9290-C767DA07533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Mode" sheetId="2" r:id="rId2"/>
-    <sheet name="Point" sheetId="3" r:id="rId3"/>
-    <sheet name="Reward" sheetId="4" r:id="rId4"/>
+    <sheet name="FITH_Info" sheetId="1" r:id="rId1"/>
+    <sheet name="FITH_Mode" sheetId="2" r:id="rId2"/>
+    <sheet name="FITH_Point" sheetId="3" r:id="rId3"/>
+    <sheet name="FITH_Reward" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,11 +573,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FITH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -717,15 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,14 +754,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,41 +1099,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBFA5E2-94D1-4A59-B46A-F15F9C58E91D}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1153,8 +1144,8 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>134</v>
+      <c r="C2" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1167,8 +1158,8 @@
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>134</v>
+      <c r="C3" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -1181,8 +1172,8 @@
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>134</v>
+      <c r="C4" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>84</v>
@@ -1195,8 +1186,8 @@
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>134</v>
+      <c r="C5" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -1209,8 +1200,8 @@
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>134</v>
+      <c r="C6" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
@@ -1223,8 +1214,8 @@
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>134</v>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -1237,8 +1228,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>134</v>
+      <c r="C8" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1254,8 +1245,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>134</v>
+      <c r="C9" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1271,8 +1262,8 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>134</v>
+      <c r="C10" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1288,8 +1279,8 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>134</v>
+      <c r="C11" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1303,8 +1294,8 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>134</v>
+      <c r="C12" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1320,8 +1311,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>134</v>
+      <c r="C13" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1337,8 +1328,8 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>134</v>
+      <c r="C14" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1354,8 +1345,8 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>134</v>
+      <c r="C15" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1371,8 +1362,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>134</v>
+      <c r="C16" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1386,8 +1377,8 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>134</v>
+      <c r="C17" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1403,8 +1394,8 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>134</v>
+      <c r="C18" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -1420,8 +1411,8 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>134</v>
+      <c r="C19" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -1435,8 +1426,8 @@
       <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>134</v>
+      <c r="C20" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -1450,8 +1441,8 @@
       <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>134</v>
+      <c r="C21" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1465,8 +1456,8 @@
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>134</v>
+      <c r="C22" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>39</v>
@@ -1480,8 +1471,8 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>134</v>
+      <c r="C23" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
@@ -1495,8 +1486,8 @@
       <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>134</v>
+      <c r="C24" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
@@ -1512,8 +1503,8 @@
       <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>134</v>
+      <c r="C25" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
@@ -1529,8 +1520,8 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>134</v>
+      <c r="C26" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>47</v>
@@ -1546,8 +1537,8 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>134</v>
+      <c r="C27" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E27" t="s">
         <v>49</v>
@@ -1563,8 +1554,8 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>134</v>
+      <c r="C28" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>51</v>
@@ -1580,8 +1571,8 @@
       <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>134</v>
+      <c r="C29" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E29" t="s">
         <v>53</v>
@@ -1597,8 +1588,8 @@
       <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>134</v>
+      <c r="C30" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>55</v>
@@ -1612,8 +1603,8 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>134</v>
+      <c r="C31" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
@@ -1629,8 +1620,8 @@
       <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>134</v>
+      <c r="C32" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>59</v>
@@ -1646,8 +1637,8 @@
       <c r="B33" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>134</v>
+      <c r="C33" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E33" t="s">
         <v>61</v>
@@ -1663,8 +1654,8 @@
       <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>134</v>
+      <c r="C34" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E34" t="s">
         <v>63</v>
@@ -1680,8 +1671,8 @@
       <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>134</v>
+      <c r="C35" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>65</v>
@@ -1697,8 +1688,8 @@
       <c r="B36" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>134</v>
+      <c r="C36" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>67</v>
@@ -1714,8 +1705,8 @@
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>134</v>
+      <c r="C37" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E37" t="s">
         <v>69</v>
@@ -1731,8 +1722,8 @@
       <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>134</v>
+      <c r="C38" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>71</v>
@@ -1748,8 +1739,8 @@
       <c r="B39" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>134</v>
+      <c r="C39" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E39" t="s">
         <v>73</v>
@@ -1765,8 +1756,8 @@
       <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>134</v>
+      <c r="C40" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -1780,8 +1771,8 @@
       <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>134</v>
+      <c r="C41" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E41" t="s">
         <v>77</v>
@@ -1797,8 +1788,8 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>134</v>
+      <c r="C42" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>131</v>
@@ -1817,8 +1808,8 @@
       <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>134</v>
+      <c r="C43" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
@@ -1837,8 +1828,8 @@
       <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>134</v>
+      <c r="C44" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>131</v>
@@ -1857,8 +1848,8 @@
       <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>134</v>
+      <c r="C45" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>127</v>
@@ -1877,8 +1868,8 @@
       <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>134</v>
+      <c r="C46" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>127</v>
@@ -1897,8 +1888,8 @@
       <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>134</v>
+      <c r="C47" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>127</v>
@@ -1917,8 +1908,8 @@
       <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>134</v>
+      <c r="C48" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E48" t="s">
         <v>102</v>
@@ -1934,8 +1925,8 @@
       <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>134</v>
+      <c r="C49" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E49" t="s">
         <v>104</v>
@@ -1951,8 +1942,8 @@
       <c r="B50" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>134</v>
+      <c r="C50" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E50" t="s">
         <v>106</v>
@@ -1968,8 +1959,8 @@
       <c r="B51" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>134</v>
+      <c r="C51" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>127</v>
@@ -1991,8 +1982,8 @@
       <c r="B52" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>134</v>
+      <c r="C52" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="E52" t="s">
         <v>110</v>
@@ -2008,8 +1999,8 @@
       <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>134</v>
+      <c r="C53" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>131</v>
@@ -2028,8 +2019,8 @@
       <c r="B54" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>134</v>
+      <c r="C54" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>127</v>
@@ -2051,8 +2042,8 @@
       <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>134</v>
+      <c r="C55" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
@@ -2074,8 +2065,8 @@
       <c r="B56" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>134</v>
+      <c r="C56" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>131</v>
@@ -2094,8 +2085,8 @@
       <c r="B57" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>134</v>
+      <c r="C57" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>127</v>
@@ -2117,8 +2108,8 @@
       <c r="B58" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>134</v>
+      <c r="C58" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>127</v>
@@ -2144,119 +2135,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4639A-B3EA-48F2-99B5-95CBD3E6ED80}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>30</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -2267,20 +2262,20 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>40</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
       <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
         <v>20</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
@@ -2290,32 +2285,35 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>300</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -2326,20 +2324,20 @@
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>40</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
       <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
         <v>20</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -2349,32 +2347,35 @@
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>300</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -2385,20 +2386,20 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>40</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
       <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
         <v>20</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
         <v>0</v>
       </c>
@@ -2408,32 +2409,35 @@
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>300</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -2444,20 +2448,20 @@
         <v>0</v>
       </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>40</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
       <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
         <v>20</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -2467,32 +2471,35 @@
       <c r="S5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>300</v>
       </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
       <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -2503,20 +2510,20 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>40</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
       <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <v>20</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -2524,6 +2531,9 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <v>0</v>
       </c>
     </row>
@@ -2535,91 +2545,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8614B97-A181-47AA-AA2F-81978B0BB459}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>93</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>500</v>
       </c>
     </row>
@@ -2634,7 +2667,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2668,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>Point!$C$5*Reward!A2</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A2</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>Point!$C$7+B2</f>
+        <f>FITH_Point!$D$7+B2</f>
         <v>500</v>
       </c>
       <c r="D2">
-        <f>Point!$C$6*Reward!A2</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>Point!$C$7+Reward!D2</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D2</f>
         <v>500</v>
       </c>
     </row>
@@ -2689,19 +2722,19 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <f>Point!$C$5*Reward!A3</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A3</f>
         <v>50</v>
       </c>
       <c r="C3">
-        <f>Point!$C$7+B3</f>
+        <f>FITH_Point!$D$7+B3</f>
         <v>550</v>
       </c>
       <c r="D3">
-        <f>Point!$C$6*Reward!A3</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A3</f>
         <v>100</v>
       </c>
       <c r="E3">
-        <f>Point!$C$7+Reward!D3</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D3</f>
         <v>600</v>
       </c>
     </row>
@@ -2710,19 +2743,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>Point!$C$5*Reward!A4</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A4</f>
         <v>100</v>
       </c>
       <c r="C4">
-        <f>Point!$C$7+B4</f>
+        <f>FITH_Point!$D$7+B4</f>
         <v>600</v>
       </c>
       <c r="D4">
-        <f>Point!$C$6*Reward!A4</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A4</f>
         <v>200</v>
       </c>
       <c r="E4">
-        <f>Point!$C$7+Reward!D4</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D4</f>
         <v>700</v>
       </c>
     </row>
@@ -2731,19 +2764,19 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <f>Point!$C$5*Reward!A5</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A5</f>
         <v>150</v>
       </c>
       <c r="C5">
-        <f>Point!$C$7+B5</f>
+        <f>FITH_Point!$D$7+B5</f>
         <v>650</v>
       </c>
       <c r="D5">
-        <f>Point!$C$6*Reward!A5</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A5</f>
         <v>300</v>
       </c>
       <c r="E5">
-        <f>Point!$C$7+Reward!D5</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D5</f>
         <v>800</v>
       </c>
     </row>
@@ -2752,19 +2785,19 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f>Point!$C$5*Reward!A6</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A6</f>
         <v>200</v>
       </c>
       <c r="C6">
-        <f>Point!$C$7+B6</f>
+        <f>FITH_Point!$D$7+B6</f>
         <v>700</v>
       </c>
       <c r="D6">
-        <f>Point!$C$6*Reward!A6</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A6</f>
         <v>400</v>
       </c>
       <c r="E6">
-        <f>Point!$C$7+Reward!D6</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D6</f>
         <v>900</v>
       </c>
     </row>
@@ -2773,19 +2806,19 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <f>Point!$C$5*Reward!A7</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A7</f>
         <v>250</v>
       </c>
       <c r="C7">
-        <f>Point!$C$7+B7</f>
+        <f>FITH_Point!$D$7+B7</f>
         <v>750</v>
       </c>
       <c r="D7">
-        <f>Point!$C$6*Reward!A7</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A7</f>
         <v>500</v>
       </c>
       <c r="E7">
-        <f>Point!$C$7+Reward!D7</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D7</f>
         <v>1000</v>
       </c>
     </row>
@@ -2794,19 +2827,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Point!$C$5*Reward!A8</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A8</f>
         <v>300</v>
       </c>
       <c r="C8">
-        <f>Point!$C$7+B8</f>
+        <f>FITH_Point!$D$7+B8</f>
         <v>800</v>
       </c>
       <c r="D8">
-        <f>Point!$C$6*Reward!A8</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A8</f>
         <v>600</v>
       </c>
       <c r="E8">
-        <f>Point!$C$7+Reward!D8</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D8</f>
         <v>1100</v>
       </c>
     </row>
@@ -2815,19 +2848,19 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <f>Point!$C$5*Reward!A9</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A9</f>
         <v>350</v>
       </c>
       <c r="C9">
-        <f>Point!$C$7+B9</f>
+        <f>FITH_Point!$D$7+B9</f>
         <v>850</v>
       </c>
       <c r="D9">
-        <f>Point!$C$6*Reward!A9</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A9</f>
         <v>700</v>
       </c>
       <c r="E9">
-        <f>Point!$C$7+Reward!D9</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D9</f>
         <v>1200</v>
       </c>
     </row>
@@ -2836,19 +2869,19 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>Point!$C$5*Reward!A10</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A10</f>
         <v>400</v>
       </c>
       <c r="C10">
-        <f>Point!$C$7+B10</f>
+        <f>FITH_Point!$D$7+B10</f>
         <v>900</v>
       </c>
       <c r="D10">
-        <f>Point!$C$6*Reward!A10</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A10</f>
         <v>800</v>
       </c>
       <c r="E10">
-        <f>Point!$C$7+Reward!D10</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D10</f>
         <v>1300</v>
       </c>
     </row>
@@ -2857,19 +2890,19 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <f>Point!$C$5*Reward!A11</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A11</f>
         <v>450</v>
       </c>
       <c r="C11">
-        <f>Point!$C$7+B11</f>
+        <f>FITH_Point!$D$7+B11</f>
         <v>950</v>
       </c>
       <c r="D11">
-        <f>Point!$C$6*Reward!A11</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A11</f>
         <v>900</v>
       </c>
       <c r="E11">
-        <f>Point!$C$7+Reward!D11</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D11</f>
         <v>1400</v>
       </c>
     </row>
@@ -2878,19 +2911,19 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>Point!$C$5*Reward!A12</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A12</f>
         <v>500</v>
       </c>
       <c r="C12">
-        <f>Point!$C$7+B12</f>
+        <f>FITH_Point!$D$7+B12</f>
         <v>1000</v>
       </c>
       <c r="D12">
-        <f>Point!$C$6*Reward!A12</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A12</f>
         <v>1000</v>
       </c>
       <c r="E12">
-        <f>Point!$C$7+Reward!D12</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D12</f>
         <v>1500</v>
       </c>
     </row>
@@ -2899,19 +2932,19 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <f>Point!$C$5*Reward!A13</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A13</f>
         <v>550</v>
       </c>
       <c r="C13">
-        <f>Point!$C$7+B13</f>
+        <f>FITH_Point!$D$7+B13</f>
         <v>1050</v>
       </c>
       <c r="D13">
-        <f>Point!$C$6*Reward!A13</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A13</f>
         <v>1100</v>
       </c>
       <c r="E13">
-        <f>Point!$C$7+Reward!D13</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D13</f>
         <v>1600</v>
       </c>
     </row>
@@ -2920,19 +2953,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>Point!$C$5*Reward!A14</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A14</f>
         <v>600</v>
       </c>
       <c r="C14">
-        <f>Point!$C$7+B14</f>
+        <f>FITH_Point!$D$7+B14</f>
         <v>1100</v>
       </c>
       <c r="D14">
-        <f>Point!$C$6*Reward!A14</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A14</f>
         <v>1200</v>
       </c>
       <c r="E14">
-        <f>Point!$C$7+Reward!D14</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D14</f>
         <v>1700</v>
       </c>
     </row>
@@ -2941,19 +2974,19 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <f>Point!$C$5*Reward!A15</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A15</f>
         <v>650</v>
       </c>
       <c r="C15">
-        <f>Point!$C$7+B15</f>
+        <f>FITH_Point!$D$7+B15</f>
         <v>1150</v>
       </c>
       <c r="D15">
-        <f>Point!$C$6*Reward!A15</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A15</f>
         <v>1300</v>
       </c>
       <c r="E15">
-        <f>Point!$C$7+Reward!D15</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D15</f>
         <v>1800</v>
       </c>
     </row>
@@ -2962,19 +2995,19 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>Point!$C$5*Reward!A16</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A16</f>
         <v>700</v>
       </c>
       <c r="C16">
-        <f>Point!$C$7+B16</f>
+        <f>FITH_Point!$D$7+B16</f>
         <v>1200</v>
       </c>
       <c r="D16">
-        <f>Point!$C$6*Reward!A16</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A16</f>
         <v>1400</v>
       </c>
       <c r="E16">
-        <f>Point!$C$7+Reward!D16</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D16</f>
         <v>1900</v>
       </c>
     </row>
@@ -2983,19 +3016,19 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <f>Point!$C$5*Reward!A17</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A17</f>
         <v>750</v>
       </c>
       <c r="C17">
-        <f>Point!$C$7+B17</f>
+        <f>FITH_Point!$D$7+B17</f>
         <v>1250</v>
       </c>
       <c r="D17">
-        <f>Point!$C$6*Reward!A17</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A17</f>
         <v>1500</v>
       </c>
       <c r="E17">
-        <f>Point!$C$7+Reward!D17</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D17</f>
         <v>2000</v>
       </c>
     </row>
@@ -3004,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <f>Point!$C$5*Reward!A18</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A18</f>
         <v>800</v>
       </c>
       <c r="C18">
-        <f>Point!$C$7+B18</f>
+        <f>FITH_Point!$D$7+B18</f>
         <v>1300</v>
       </c>
       <c r="D18">
-        <f>Point!$C$6*Reward!A18</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A18</f>
         <v>1600</v>
       </c>
       <c r="E18">
-        <f>Point!$C$7+Reward!D18</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D18</f>
         <v>2100</v>
       </c>
     </row>
@@ -3025,19 +3058,19 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <f>Point!$C$5*Reward!A19</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A19</f>
         <v>850</v>
       </c>
       <c r="C19">
-        <f>Point!$C$7+B19</f>
+        <f>FITH_Point!$D$7+B19</f>
         <v>1350</v>
       </c>
       <c r="D19">
-        <f>Point!$C$6*Reward!A19</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A19</f>
         <v>1700</v>
       </c>
       <c r="E19">
-        <f>Point!$C$7+Reward!D19</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D19</f>
         <v>2200</v>
       </c>
     </row>
@@ -3046,19 +3079,19 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <f>Point!$C$5*Reward!A20</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A20</f>
         <v>900</v>
       </c>
       <c r="C20">
-        <f>Point!$C$7+B20</f>
+        <f>FITH_Point!$D$7+B20</f>
         <v>1400</v>
       </c>
       <c r="D20">
-        <f>Point!$C$6*Reward!A20</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A20</f>
         <v>1800</v>
       </c>
       <c r="E20">
-        <f>Point!$C$7+Reward!D20</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D20</f>
         <v>2300</v>
       </c>
     </row>
@@ -3067,19 +3100,19 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <f>Point!$C$5*Reward!A21</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A21</f>
         <v>950</v>
       </c>
       <c r="C21">
-        <f>Point!$C$7+B21</f>
+        <f>FITH_Point!$D$7+B21</f>
         <v>1450</v>
       </c>
       <c r="D21">
-        <f>Point!$C$6*Reward!A21</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A21</f>
         <v>1900</v>
       </c>
       <c r="E21">
-        <f>Point!$C$7+Reward!D21</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D21</f>
         <v>2400</v>
       </c>
     </row>
@@ -3088,19 +3121,19 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <f>Point!$C$5*Reward!A22</f>
+        <f>FITH_Point!$D$5*FITH_Reward!A22</f>
         <v>1000</v>
       </c>
       <c r="C22">
-        <f>Point!$C$7+B22</f>
+        <f>FITH_Point!$D$7+B22</f>
         <v>1500</v>
       </c>
       <c r="D22">
-        <f>Point!$C$6*Reward!A22</f>
+        <f>FITH_Point!$D$6*FITH_Reward!A22</f>
         <v>2000</v>
       </c>
       <c r="E22">
-        <f>Point!$C$7+Reward!D22</f>
+        <f>FITH_Point!$D$7+FITH_Reward!D22</f>
         <v>2500</v>
       </c>
     </row>

--- a/Server/Server/GameData/Meow_Mode.xlsx
+++ b/Server/Server/GameData/Meow_Mode.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\FestivalTownProject-main\FestivalTownProject-main\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A81D5D-996B-4C64-9290-C767DA07533F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED90776-89FE-4989-B994-A5BB140D8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="FITH_Info" sheetId="1" r:id="rId1"/>
-    <sheet name="FITH_Mode" sheetId="2" r:id="rId2"/>
-    <sheet name="FITH_Point" sheetId="3" r:id="rId3"/>
-    <sheet name="FITH_Reward" sheetId="4" r:id="rId4"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Mode" sheetId="2" r:id="rId2"/>
+    <sheet name="Point" sheetId="3" r:id="rId3"/>
+    <sheet name="Reward" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="139">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,11 +573,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FITH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mode</t>
+    <t>Team_Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FITH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team_Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -717,6 +733,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,14 +779,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,43 +1122,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBFA5E2-94D1-4A59-B46A-F15F9C58E91D}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2"/>
     <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1144,8 +1169,8 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>133</v>
+      <c r="C2" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1158,8 +1183,8 @@
       <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>133</v>
+      <c r="C3" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -1172,8 +1197,8 @@
       <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>133</v>
+      <c r="C4" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>84</v>
@@ -1186,8 +1211,8 @@
       <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>133</v>
+      <c r="C5" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -1200,8 +1225,8 @@
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>133</v>
+      <c r="C6" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
@@ -1214,8 +1239,8 @@
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>133</v>
+      <c r="C7" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -1228,8 +1253,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>133</v>
+      <c r="C8" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1245,8 +1270,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>133</v>
+      <c r="C9" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1262,8 +1287,8 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>133</v>
+      <c r="C10" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1279,8 +1304,8 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>133</v>
+      <c r="C11" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1294,8 +1319,8 @@
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>133</v>
+      <c r="C12" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1311,8 +1336,8 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>133</v>
+      <c r="C13" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1328,8 +1353,8 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>133</v>
+      <c r="C14" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1345,8 +1370,8 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>133</v>
+      <c r="C15" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1362,8 +1387,8 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>133</v>
+      <c r="C16" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1377,8 +1402,8 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>133</v>
+      <c r="C17" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1394,8 +1419,8 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>133</v>
+      <c r="C18" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -1409,13 +1434,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1424,13 +1449,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>133</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -1439,13 +1464,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>133</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -1454,13 +1479,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>133</v>
+        <v>36</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -1469,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>133</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2"/>
     </row>
@@ -1484,30 +1509,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>133</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1518,16 +1541,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>133</v>
+        <v>44</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1535,13 +1558,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>133</v>
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>21</v>
@@ -1552,13 +1575,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>133</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>21</v>
@@ -1569,13 +1592,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>133</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>21</v>
@@ -1586,45 +1609,45 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>133</v>
+        <v>54</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>133</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1635,16 +1658,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1652,16 +1675,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>133</v>
+        <v>60</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1669,13 +1692,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>133</v>
+        <v>62</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1686,16 +1709,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>133</v>
+        <v>64</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1703,13 +1726,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>133</v>
+        <v>66</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>21</v>
@@ -1720,13 +1743,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>133</v>
+        <v>68</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>21</v>
@@ -1737,13 +1760,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>21</v>
@@ -1754,48 +1777,45 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>133</v>
+        <v>72</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>133</v>
+        <v>74</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1806,16 +1826,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>133</v>
+        <v>89</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1826,16 +1846,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1846,16 +1866,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>133</v>
+        <v>93</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1866,16 +1886,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1886,16 +1906,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1906,13 +1926,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>133</v>
+        <v>99</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1923,13 +1946,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1940,56 +1963,56 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="80.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:7" ht="80.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1997,16 +2020,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -2017,22 +2037,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.45">
@@ -2040,22 +2057,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -2063,19 +2080,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>133</v>
+        <v>116</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
@@ -2083,22 +2103,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -2106,26 +2123,49 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.45">
-      <c r="G66" s="4"/>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G67" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2135,126 +2175,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4639A-B3EA-48F2-99B5-95CBD3E6ED80}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>300</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -2265,20 +2307,20 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>40</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
       <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
         <v>20</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
@@ -2288,35 +2330,38 @@
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>300</v>
       </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
       <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -2327,20 +2372,20 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>40</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
       <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
         <v>20</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -2350,35 +2395,38 @@
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>300</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>30</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -2389,20 +2437,20 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>40</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="O4">
-        <v>10</v>
-      </c>
       <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
         <v>20</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -2412,35 +2460,38 @@
       <c r="T4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>300</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
       <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>30</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -2451,20 +2502,20 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>40</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
       <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
         <v>20</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
@@ -2474,35 +2525,38 @@
       <c r="T5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>300</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -2513,20 +2567,20 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>40</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
       <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
         <v>20</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
       <c r="R6">
         <v>0</v>
       </c>
@@ -2534,6 +2588,9 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0</v>
       </c>
     </row>
@@ -2545,114 +2602,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8614B97-A181-47AA-AA2F-81978B0BB459}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>119</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>500</v>
       </c>
     </row>
@@ -2667,7 +2701,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2701,19 +2735,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>FITH_Point!$D$5*FITH_Reward!A2</f>
+        <f>Point!$C$5*Reward!A2</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>FITH_Point!$D$7+B2</f>
+        <f>Point!$C$7+B2</f>
         <v>500</v>
       </c>
       <c r="D2">
-        <f>FITH_Point!$D$6*FITH_Reward!A2</f>
+        <f>Point!$C$6*Reward!A2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>FITH_Point!$D$7+FITH_Reward!D2</f>
+        <f>Point!$C$7+Reward!D2</f>
         <v>500</v>
       </c>
     </row>
@@ -2722,19 +2756,19 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <f>FITH_Point!$D$5*FITH_Reward!A3</f>
+        <f>Point!$C$5*Reward!A3</f>
         <v>50</v>
       </c>
       <c r="C3">
-        <f>FITH_Point!$D$7+B3</f>
+        <f>Point!$C$7+B3</f>
         <v>550</v>
       </c>
       <c r="D3">
-        <f>FITH_Point!$D$6*FITH_Reward!A3</f>
+        <f>Point!$C$6*Reward!A3</f>
         <v>100</v>
       </c>
       <c r="E3">
-        <f>FITH_Point!$D$7+FITH_Reward!D3</f>
+        <f>Point!$C$7+Reward!D3</f>
         <v>600</v>
       </c>
     </row>
@@ -2743,19 +2777,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>FITH_Point!$D$5*FITH_Reward!A4</f>
+        <f>Point!$C$5*Reward!A4</f>
         <v>100</v>
       </c>
       <c r="C4">
-        <f>FITH_Point!$D$7+B4</f>
+        <f>Point!$C$7+B4</f>
         <v>600</v>
       </c>
       <c r="D4">
-        <f>FITH_Point!$D$6*FITH_Reward!A4</f>
+        <f>Point!$C$6*Reward!A4</f>
         <v>200</v>
       </c>
       <c r="E4">
-        <f>FITH_Point!$D$7+FITH_Reward!D4</f>
+        <f>Point!$C$7+Reward!D4</f>
         <v>700</v>
       </c>
     </row>
@@ -2764,19 +2798,19 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <f>FITH_Point!$D$5*FITH_Reward!A5</f>
+        <f>Point!$C$5*Reward!A5</f>
         <v>150</v>
       </c>
       <c r="C5">
-        <f>FITH_Point!$D$7+B5</f>
+        <f>Point!$C$7+B5</f>
         <v>650</v>
       </c>
       <c r="D5">
-        <f>FITH_Point!$D$6*FITH_Reward!A5</f>
+        <f>Point!$C$6*Reward!A5</f>
         <v>300</v>
       </c>
       <c r="E5">
-        <f>FITH_Point!$D$7+FITH_Reward!D5</f>
+        <f>Point!$C$7+Reward!D5</f>
         <v>800</v>
       </c>
     </row>
@@ -2785,19 +2819,19 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f>FITH_Point!$D$5*FITH_Reward!A6</f>
+        <f>Point!$C$5*Reward!A6</f>
         <v>200</v>
       </c>
       <c r="C6">
-        <f>FITH_Point!$D$7+B6</f>
+        <f>Point!$C$7+B6</f>
         <v>700</v>
       </c>
       <c r="D6">
-        <f>FITH_Point!$D$6*FITH_Reward!A6</f>
+        <f>Point!$C$6*Reward!A6</f>
         <v>400</v>
       </c>
       <c r="E6">
-        <f>FITH_Point!$D$7+FITH_Reward!D6</f>
+        <f>Point!$C$7+Reward!D6</f>
         <v>900</v>
       </c>
     </row>
@@ -2806,19 +2840,19 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <f>FITH_Point!$D$5*FITH_Reward!A7</f>
+        <f>Point!$C$5*Reward!A7</f>
         <v>250</v>
       </c>
       <c r="C7">
-        <f>FITH_Point!$D$7+B7</f>
+        <f>Point!$C$7+B7</f>
         <v>750</v>
       </c>
       <c r="D7">
-        <f>FITH_Point!$D$6*FITH_Reward!A7</f>
+        <f>Point!$C$6*Reward!A7</f>
         <v>500</v>
       </c>
       <c r="E7">
-        <f>FITH_Point!$D$7+FITH_Reward!D7</f>
+        <f>Point!$C$7+Reward!D7</f>
         <v>1000</v>
       </c>
     </row>
@@ -2827,19 +2861,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>FITH_Point!$D$5*FITH_Reward!A8</f>
+        <f>Point!$C$5*Reward!A8</f>
         <v>300</v>
       </c>
       <c r="C8">
-        <f>FITH_Point!$D$7+B8</f>
+        <f>Point!$C$7+B8</f>
         <v>800</v>
       </c>
       <c r="D8">
-        <f>FITH_Point!$D$6*FITH_Reward!A8</f>
+        <f>Point!$C$6*Reward!A8</f>
         <v>600</v>
       </c>
       <c r="E8">
-        <f>FITH_Point!$D$7+FITH_Reward!D8</f>
+        <f>Point!$C$7+Reward!D8</f>
         <v>1100</v>
       </c>
     </row>
@@ -2848,19 +2882,19 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <f>FITH_Point!$D$5*FITH_Reward!A9</f>
+        <f>Point!$C$5*Reward!A9</f>
         <v>350</v>
       </c>
       <c r="C9">
-        <f>FITH_Point!$D$7+B9</f>
+        <f>Point!$C$7+B9</f>
         <v>850</v>
       </c>
       <c r="D9">
-        <f>FITH_Point!$D$6*FITH_Reward!A9</f>
+        <f>Point!$C$6*Reward!A9</f>
         <v>700</v>
       </c>
       <c r="E9">
-        <f>FITH_Point!$D$7+FITH_Reward!D9</f>
+        <f>Point!$C$7+Reward!D9</f>
         <v>1200</v>
       </c>
     </row>
@@ -2869,19 +2903,19 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>FITH_Point!$D$5*FITH_Reward!A10</f>
+        <f>Point!$C$5*Reward!A10</f>
         <v>400</v>
       </c>
       <c r="C10">
-        <f>FITH_Point!$D$7+B10</f>
+        <f>Point!$C$7+B10</f>
         <v>900</v>
       </c>
       <c r="D10">
-        <f>FITH_Point!$D$6*FITH_Reward!A10</f>
+        <f>Point!$C$6*Reward!A10</f>
         <v>800</v>
       </c>
       <c r="E10">
-        <f>FITH_Point!$D$7+FITH_Reward!D10</f>
+        <f>Point!$C$7+Reward!D10</f>
         <v>1300</v>
       </c>
     </row>
@@ -2890,19 +2924,19 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <f>FITH_Point!$D$5*FITH_Reward!A11</f>
+        <f>Point!$C$5*Reward!A11</f>
         <v>450</v>
       </c>
       <c r="C11">
-        <f>FITH_Point!$D$7+B11</f>
+        <f>Point!$C$7+B11</f>
         <v>950</v>
       </c>
       <c r="D11">
-        <f>FITH_Point!$D$6*FITH_Reward!A11</f>
+        <f>Point!$C$6*Reward!A11</f>
         <v>900</v>
       </c>
       <c r="E11">
-        <f>FITH_Point!$D$7+FITH_Reward!D11</f>
+        <f>Point!$C$7+Reward!D11</f>
         <v>1400</v>
       </c>
     </row>
@@ -2911,19 +2945,19 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>FITH_Point!$D$5*FITH_Reward!A12</f>
+        <f>Point!$C$5*Reward!A12</f>
         <v>500</v>
       </c>
       <c r="C12">
-        <f>FITH_Point!$D$7+B12</f>
+        <f>Point!$C$7+B12</f>
         <v>1000</v>
       </c>
       <c r="D12">
-        <f>FITH_Point!$D$6*FITH_Reward!A12</f>
+        <f>Point!$C$6*Reward!A12</f>
         <v>1000</v>
       </c>
       <c r="E12">
-        <f>FITH_Point!$D$7+FITH_Reward!D12</f>
+        <f>Point!$C$7+Reward!D12</f>
         <v>1500</v>
       </c>
     </row>
@@ -2932,19 +2966,19 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <f>FITH_Point!$D$5*FITH_Reward!A13</f>
+        <f>Point!$C$5*Reward!A13</f>
         <v>550</v>
       </c>
       <c r="C13">
-        <f>FITH_Point!$D$7+B13</f>
+        <f>Point!$C$7+B13</f>
         <v>1050</v>
       </c>
       <c r="D13">
-        <f>FITH_Point!$D$6*FITH_Reward!A13</f>
+        <f>Point!$C$6*Reward!A13</f>
         <v>1100</v>
       </c>
       <c r="E13">
-        <f>FITH_Point!$D$7+FITH_Reward!D13</f>
+        <f>Point!$C$7+Reward!D13</f>
         <v>1600</v>
       </c>
     </row>
@@ -2953,19 +2987,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>FITH_Point!$D$5*FITH_Reward!A14</f>
+        <f>Point!$C$5*Reward!A14</f>
         <v>600</v>
       </c>
       <c r="C14">
-        <f>FITH_Point!$D$7+B14</f>
+        <f>Point!$C$7+B14</f>
         <v>1100</v>
       </c>
       <c r="D14">
-        <f>FITH_Point!$D$6*FITH_Reward!A14</f>
+        <f>Point!$C$6*Reward!A14</f>
         <v>1200</v>
       </c>
       <c r="E14">
-        <f>FITH_Point!$D$7+FITH_Reward!D14</f>
+        <f>Point!$C$7+Reward!D14</f>
         <v>1700</v>
       </c>
     </row>
@@ -2974,19 +3008,19 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <f>FITH_Point!$D$5*FITH_Reward!A15</f>
+        <f>Point!$C$5*Reward!A15</f>
         <v>650</v>
       </c>
       <c r="C15">
-        <f>FITH_Point!$D$7+B15</f>
+        <f>Point!$C$7+B15</f>
         <v>1150</v>
       </c>
       <c r="D15">
-        <f>FITH_Point!$D$6*FITH_Reward!A15</f>
+        <f>Point!$C$6*Reward!A15</f>
         <v>1300</v>
       </c>
       <c r="E15">
-        <f>FITH_Point!$D$7+FITH_Reward!D15</f>
+        <f>Point!$C$7+Reward!D15</f>
         <v>1800</v>
       </c>
     </row>
@@ -2995,19 +3029,19 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>FITH_Point!$D$5*FITH_Reward!A16</f>
+        <f>Point!$C$5*Reward!A16</f>
         <v>700</v>
       </c>
       <c r="C16">
-        <f>FITH_Point!$D$7+B16</f>
+        <f>Point!$C$7+B16</f>
         <v>1200</v>
       </c>
       <c r="D16">
-        <f>FITH_Point!$D$6*FITH_Reward!A16</f>
+        <f>Point!$C$6*Reward!A16</f>
         <v>1400</v>
       </c>
       <c r="E16">
-        <f>FITH_Point!$D$7+FITH_Reward!D16</f>
+        <f>Point!$C$7+Reward!D16</f>
         <v>1900</v>
       </c>
     </row>
@@ -3016,19 +3050,19 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <f>FITH_Point!$D$5*FITH_Reward!A17</f>
+        <f>Point!$C$5*Reward!A17</f>
         <v>750</v>
       </c>
       <c r="C17">
-        <f>FITH_Point!$D$7+B17</f>
+        <f>Point!$C$7+B17</f>
         <v>1250</v>
       </c>
       <c r="D17">
-        <f>FITH_Point!$D$6*FITH_Reward!A17</f>
+        <f>Point!$C$6*Reward!A17</f>
         <v>1500</v>
       </c>
       <c r="E17">
-        <f>FITH_Point!$D$7+FITH_Reward!D17</f>
+        <f>Point!$C$7+Reward!D17</f>
         <v>2000</v>
       </c>
     </row>
@@ -3037,19 +3071,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <f>FITH_Point!$D$5*FITH_Reward!A18</f>
+        <f>Point!$C$5*Reward!A18</f>
         <v>800</v>
       </c>
       <c r="C18">
-        <f>FITH_Point!$D$7+B18</f>
+        <f>Point!$C$7+B18</f>
         <v>1300</v>
       </c>
       <c r="D18">
-        <f>FITH_Point!$D$6*FITH_Reward!A18</f>
+        <f>Point!$C$6*Reward!A18</f>
         <v>1600</v>
       </c>
       <c r="E18">
-        <f>FITH_Point!$D$7+FITH_Reward!D18</f>
+        <f>Point!$C$7+Reward!D18</f>
         <v>2100</v>
       </c>
     </row>
@@ -3058,19 +3092,19 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <f>FITH_Point!$D$5*FITH_Reward!A19</f>
+        <f>Point!$C$5*Reward!A19</f>
         <v>850</v>
       </c>
       <c r="C19">
-        <f>FITH_Point!$D$7+B19</f>
+        <f>Point!$C$7+B19</f>
         <v>1350</v>
       </c>
       <c r="D19">
-        <f>FITH_Point!$D$6*FITH_Reward!A19</f>
+        <f>Point!$C$6*Reward!A19</f>
         <v>1700</v>
       </c>
       <c r="E19">
-        <f>FITH_Point!$D$7+FITH_Reward!D19</f>
+        <f>Point!$C$7+Reward!D19</f>
         <v>2200</v>
       </c>
     </row>
@@ -3079,19 +3113,19 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <f>FITH_Point!$D$5*FITH_Reward!A20</f>
+        <f>Point!$C$5*Reward!A20</f>
         <v>900</v>
       </c>
       <c r="C20">
-        <f>FITH_Point!$D$7+B20</f>
+        <f>Point!$C$7+B20</f>
         <v>1400</v>
       </c>
       <c r="D20">
-        <f>FITH_Point!$D$6*FITH_Reward!A20</f>
+        <f>Point!$C$6*Reward!A20</f>
         <v>1800</v>
       </c>
       <c r="E20">
-        <f>FITH_Point!$D$7+FITH_Reward!D20</f>
+        <f>Point!$C$7+Reward!D20</f>
         <v>2300</v>
       </c>
     </row>
@@ -3100,19 +3134,19 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <f>FITH_Point!$D$5*FITH_Reward!A21</f>
+        <f>Point!$C$5*Reward!A21</f>
         <v>950</v>
       </c>
       <c r="C21">
-        <f>FITH_Point!$D$7+B21</f>
+        <f>Point!$C$7+B21</f>
         <v>1450</v>
       </c>
       <c r="D21">
-        <f>FITH_Point!$D$6*FITH_Reward!A21</f>
+        <f>Point!$C$6*Reward!A21</f>
         <v>1900</v>
       </c>
       <c r="E21">
-        <f>FITH_Point!$D$7+FITH_Reward!D21</f>
+        <f>Point!$C$7+Reward!D21</f>
         <v>2400</v>
       </c>
     </row>
@@ -3121,19 +3155,19 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <f>FITH_Point!$D$5*FITH_Reward!A22</f>
+        <f>Point!$C$5*Reward!A22</f>
         <v>1000</v>
       </c>
       <c r="C22">
-        <f>FITH_Point!$D$7+B22</f>
+        <f>Point!$C$7+B22</f>
         <v>1500</v>
       </c>
       <c r="D22">
-        <f>FITH_Point!$D$6*FITH_Reward!A22</f>
+        <f>Point!$C$6*Reward!A22</f>
         <v>2000</v>
       </c>
       <c r="E22">
-        <f>FITH_Point!$D$7+FITH_Reward!D22</f>
+        <f>Point!$C$7+Reward!D22</f>
         <v>2500</v>
       </c>
     </row>

--- a/Server/Server/GameData/Meow_Mode.xlsx
+++ b/Server/Server/GameData/Meow_Mode.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\porject\FestivalTownProject-main\FestivalTownProject-main\Server\Server\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED90776-89FE-4989-B994-A5BB140D8D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E6AE9-1584-40EC-B328-90DE73254181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{852B7553-E889-4849-8559-3ED318608F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Mode" sheetId="2" r:id="rId2"/>
-    <sheet name="Point" sheetId="3" r:id="rId3"/>
-    <sheet name="Reward" sheetId="4" r:id="rId4"/>
+    <sheet name="FITH_Info" sheetId="1" r:id="rId1"/>
+    <sheet name="FITH_Mode" sheetId="2" r:id="rId2"/>
+    <sheet name="FITH_Point" sheetId="3" r:id="rId3"/>
+    <sheet name="FITH_Reward" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="138">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,10 +566,6 @@
   </si>
   <si>
     <t>mul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -742,13 +738,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +831,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBFA5E2-94D1-4A59-B46A-F15F9C58E91D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1147,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -1170,7 +1226,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -1184,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
@@ -1198,7 +1254,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
         <v>84</v>
@@ -1212,7 +1268,7 @@
         <v>80</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -1226,7 +1282,7 @@
         <v>81</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
@@ -1240,7 +1296,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -1254,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1271,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1288,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1305,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1320,7 +1376,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -1337,7 +1393,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1354,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1371,7 +1427,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1388,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
@@ -1403,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
@@ -1420,7 +1476,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
         <v>31</v>
@@ -1434,13 +1490,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="E19" t="s">
         <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>137</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1452,7 +1508,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -1467,7 +1523,7 @@
         <v>34</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -1482,7 +1538,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
@@ -1497,7 +1553,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
         <v>39</v>
@@ -1512,7 +1568,7 @@
         <v>40</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
@@ -1527,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
@@ -1544,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>45</v>
@@ -1561,7 +1617,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
@@ -1578,7 +1634,7 @@
         <v>48</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
         <v>49</v>
@@ -1595,7 +1651,7 @@
         <v>50</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
         <v>51</v>
@@ -1612,7 +1668,7 @@
         <v>52</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
@@ -1629,7 +1685,7 @@
         <v>54</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>55</v>
@@ -1644,7 +1700,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -1661,7 +1717,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -1678,7 +1734,7 @@
         <v>60</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
         <v>61</v>
@@ -1695,7 +1751,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
         <v>63</v>
@@ -1712,7 +1768,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
         <v>65</v>
@@ -1729,7 +1785,7 @@
         <v>66</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
@@ -1746,7 +1802,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>69</v>
@@ -1763,7 +1819,7 @@
         <v>70</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
         <v>71</v>
@@ -1780,7 +1836,7 @@
         <v>72</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
         <v>73</v>
@@ -1797,7 +1853,7 @@
         <v>74</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
@@ -1812,7 +1868,7 @@
         <v>76</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
         <v>77</v>
@@ -1829,7 +1885,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>131</v>
@@ -1849,7 +1905,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>131</v>
@@ -1869,7 +1925,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>131</v>
@@ -1889,7 +1945,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>127</v>
@@ -1909,7 +1965,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>127</v>
@@ -1929,7 +1985,7 @@
         <v>99</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>127</v>
@@ -1949,7 +2005,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -1966,7 +2022,7 @@
         <v>103</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
         <v>104</v>
@@ -1983,7 +2039,7 @@
         <v>105</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
         <v>106</v>
@@ -2000,7 +2056,7 @@
         <v>107</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>127</v>
@@ -2023,7 +2079,7 @@
         <v>109</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
         <v>110</v>
@@ -2040,7 +2096,7 @@
         <v>111</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>131</v>
@@ -2060,7 +2116,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>127</v>
@@ -2083,7 +2139,7 @@
         <v>116</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>127</v>
@@ -2106,7 +2162,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>131</v>
@@ -2126,7 +2182,7 @@
         <v>121</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>127</v>
@@ -2149,7 +2205,7 @@
         <v>124</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>127</v>
@@ -2178,7 +2234,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2215,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -2602,92 +2658,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8614B97-A181-47AA-AA2F-81978B0BB459}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="16">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5">
+      <c r="D2" s="5">
+        <v>500</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6">
+      <c r="F2">
         <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -2700,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0774BF99-367F-4709-952B-3DBE7E94EEAD}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2735,19 +2759,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>Point!$C$5*Reward!A2</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A2</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>Point!$C$7+B2</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B2</f>
         <v>500</v>
       </c>
       <c r="D2">
-        <f>Point!$C$6*Reward!A2</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>Point!$C$7+Reward!D2</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D2</f>
         <v>500</v>
       </c>
     </row>
@@ -2756,19 +2780,19 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <f>Point!$C$5*Reward!A3</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A3</f>
         <v>50</v>
       </c>
       <c r="C3">
-        <f>Point!$C$7+B3</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B3</f>
         <v>550</v>
       </c>
       <c r="D3">
-        <f>Point!$C$6*Reward!A3</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A3</f>
         <v>100</v>
       </c>
       <c r="E3">
-        <f>Point!$C$7+Reward!D3</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D3</f>
         <v>600</v>
       </c>
     </row>
@@ -2777,19 +2801,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>Point!$C$5*Reward!A4</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A4</f>
         <v>100</v>
       </c>
       <c r="C4">
-        <f>Point!$C$7+B4</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B4</f>
         <v>600</v>
       </c>
       <c r="D4">
-        <f>Point!$C$6*Reward!A4</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A4</f>
         <v>200</v>
       </c>
       <c r="E4">
-        <f>Point!$C$7+Reward!D4</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D4</f>
         <v>700</v>
       </c>
     </row>
@@ -2798,19 +2822,19 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <f>Point!$C$5*Reward!A5</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A5</f>
         <v>150</v>
       </c>
       <c r="C5">
-        <f>Point!$C$7+B5</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B5</f>
         <v>650</v>
       </c>
       <c r="D5">
-        <f>Point!$C$6*Reward!A5</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A5</f>
         <v>300</v>
       </c>
       <c r="E5">
-        <f>Point!$C$7+Reward!D5</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D5</f>
         <v>800</v>
       </c>
     </row>
@@ -2819,19 +2843,19 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f>Point!$C$5*Reward!A6</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A6</f>
         <v>200</v>
       </c>
       <c r="C6">
-        <f>Point!$C$7+B6</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B6</f>
         <v>700</v>
       </c>
       <c r="D6">
-        <f>Point!$C$6*Reward!A6</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A6</f>
         <v>400</v>
       </c>
       <c r="E6">
-        <f>Point!$C$7+Reward!D6</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D6</f>
         <v>900</v>
       </c>
     </row>
@@ -2840,19 +2864,19 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <f>Point!$C$5*Reward!A7</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A7</f>
         <v>250</v>
       </c>
       <c r="C7">
-        <f>Point!$C$7+B7</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B7</f>
         <v>750</v>
       </c>
       <c r="D7">
-        <f>Point!$C$6*Reward!A7</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A7</f>
         <v>500</v>
       </c>
       <c r="E7">
-        <f>Point!$C$7+Reward!D7</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D7</f>
         <v>1000</v>
       </c>
     </row>
@@ -2861,19 +2885,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>Point!$C$5*Reward!A8</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A8</f>
         <v>300</v>
       </c>
       <c r="C8">
-        <f>Point!$C$7+B8</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B8</f>
         <v>800</v>
       </c>
       <c r="D8">
-        <f>Point!$C$6*Reward!A8</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A8</f>
         <v>600</v>
       </c>
       <c r="E8">
-        <f>Point!$C$7+Reward!D8</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D8</f>
         <v>1100</v>
       </c>
     </row>
@@ -2882,19 +2906,19 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <f>Point!$C$5*Reward!A9</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A9</f>
         <v>350</v>
       </c>
       <c r="C9">
-        <f>Point!$C$7+B9</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B9</f>
         <v>850</v>
       </c>
       <c r="D9">
-        <f>Point!$C$6*Reward!A9</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A9</f>
         <v>700</v>
       </c>
       <c r="E9">
-        <f>Point!$C$7+Reward!D9</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D9</f>
         <v>1200</v>
       </c>
     </row>
@@ -2903,19 +2927,19 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>Point!$C$5*Reward!A10</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A10</f>
         <v>400</v>
       </c>
       <c r="C10">
-        <f>Point!$C$7+B10</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B10</f>
         <v>900</v>
       </c>
       <c r="D10">
-        <f>Point!$C$6*Reward!A10</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A10</f>
         <v>800</v>
       </c>
       <c r="E10">
-        <f>Point!$C$7+Reward!D10</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D10</f>
         <v>1300</v>
       </c>
     </row>
@@ -2924,19 +2948,19 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <f>Point!$C$5*Reward!A11</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A11</f>
         <v>450</v>
       </c>
       <c r="C11">
-        <f>Point!$C$7+B11</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B11</f>
         <v>950</v>
       </c>
       <c r="D11">
-        <f>Point!$C$6*Reward!A11</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A11</f>
         <v>900</v>
       </c>
       <c r="E11">
-        <f>Point!$C$7+Reward!D11</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D11</f>
         <v>1400</v>
       </c>
     </row>
@@ -2945,19 +2969,19 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>Point!$C$5*Reward!A12</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A12</f>
         <v>500</v>
       </c>
       <c r="C12">
-        <f>Point!$C$7+B12</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B12</f>
         <v>1000</v>
       </c>
       <c r="D12">
-        <f>Point!$C$6*Reward!A12</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A12</f>
         <v>1000</v>
       </c>
       <c r="E12">
-        <f>Point!$C$7+Reward!D12</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D12</f>
         <v>1500</v>
       </c>
     </row>
@@ -2966,19 +2990,19 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <f>Point!$C$5*Reward!A13</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A13</f>
         <v>550</v>
       </c>
       <c r="C13">
-        <f>Point!$C$7+B13</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B13</f>
         <v>1050</v>
       </c>
       <c r="D13">
-        <f>Point!$C$6*Reward!A13</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A13</f>
         <v>1100</v>
       </c>
       <c r="E13">
-        <f>Point!$C$7+Reward!D13</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D13</f>
         <v>1600</v>
       </c>
     </row>
@@ -2987,19 +3011,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>Point!$C$5*Reward!A14</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A14</f>
         <v>600</v>
       </c>
       <c r="C14">
-        <f>Point!$C$7+B14</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B14</f>
         <v>1100</v>
       </c>
       <c r="D14">
-        <f>Point!$C$6*Reward!A14</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A14</f>
         <v>1200</v>
       </c>
       <c r="E14">
-        <f>Point!$C$7+Reward!D14</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D14</f>
         <v>1700</v>
       </c>
     </row>
@@ -3008,19 +3032,19 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <f>Point!$C$5*Reward!A15</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A15</f>
         <v>650</v>
       </c>
       <c r="C15">
-        <f>Point!$C$7+B15</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B15</f>
         <v>1150</v>
       </c>
       <c r="D15">
-        <f>Point!$C$6*Reward!A15</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A15</f>
         <v>1300</v>
       </c>
       <c r="E15">
-        <f>Point!$C$7+Reward!D15</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D15</f>
         <v>1800</v>
       </c>
     </row>
@@ -3029,19 +3053,19 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <f>Point!$C$5*Reward!A16</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A16</f>
         <v>700</v>
       </c>
       <c r="C16">
-        <f>Point!$C$7+B16</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B16</f>
         <v>1200</v>
       </c>
       <c r="D16">
-        <f>Point!$C$6*Reward!A16</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A16</f>
         <v>1400</v>
       </c>
       <c r="E16">
-        <f>Point!$C$7+Reward!D16</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D16</f>
         <v>1900</v>
       </c>
     </row>
@@ -3050,19 +3074,19 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <f>Point!$C$5*Reward!A17</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A17</f>
         <v>750</v>
       </c>
       <c r="C17">
-        <f>Point!$C$7+B17</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B17</f>
         <v>1250</v>
       </c>
       <c r="D17">
-        <f>Point!$C$6*Reward!A17</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A17</f>
         <v>1500</v>
       </c>
       <c r="E17">
-        <f>Point!$C$7+Reward!D17</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D17</f>
         <v>2000</v>
       </c>
     </row>
@@ -3071,19 +3095,19 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <f>Point!$C$5*Reward!A18</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A18</f>
         <v>800</v>
       </c>
       <c r="C18">
-        <f>Point!$C$7+B18</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B18</f>
         <v>1300</v>
       </c>
       <c r="D18">
-        <f>Point!$C$6*Reward!A18</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A18</f>
         <v>1600</v>
       </c>
       <c r="E18">
-        <f>Point!$C$7+Reward!D18</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D18</f>
         <v>2100</v>
       </c>
     </row>
@@ -3092,19 +3116,19 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <f>Point!$C$5*Reward!A19</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A19</f>
         <v>850</v>
       </c>
       <c r="C19">
-        <f>Point!$C$7+B19</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B19</f>
         <v>1350</v>
       </c>
       <c r="D19">
-        <f>Point!$C$6*Reward!A19</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A19</f>
         <v>1700</v>
       </c>
       <c r="E19">
-        <f>Point!$C$7+Reward!D19</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D19</f>
         <v>2200</v>
       </c>
     </row>
@@ -3113,19 +3137,19 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <f>Point!$C$5*Reward!A20</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A20</f>
         <v>900</v>
       </c>
       <c r="C20">
-        <f>Point!$C$7+B20</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B20</f>
         <v>1400</v>
       </c>
       <c r="D20">
-        <f>Point!$C$6*Reward!A20</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A20</f>
         <v>1800</v>
       </c>
       <c r="E20">
-        <f>Point!$C$7+Reward!D20</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D20</f>
         <v>2300</v>
       </c>
     </row>
@@ -3134,19 +3158,19 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <f>Point!$C$5*Reward!A21</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A21</f>
         <v>950</v>
       </c>
       <c r="C21">
-        <f>Point!$C$7+B21</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B21</f>
         <v>1450</v>
       </c>
       <c r="D21">
-        <f>Point!$C$6*Reward!A21</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A21</f>
         <v>1900</v>
       </c>
       <c r="E21">
-        <f>Point!$C$7+Reward!D21</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D21</f>
         <v>2400</v>
       </c>
     </row>
@@ -3155,19 +3179,19 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <f>Point!$C$5*Reward!A22</f>
+        <f>FITH_Point!$E$2*FITH_Reward!A22</f>
         <v>1000</v>
       </c>
       <c r="C22">
-        <f>Point!$C$7+B22</f>
+        <f>FITH_Point!$D$2+FITH_Reward!B22</f>
         <v>1500</v>
       </c>
       <c r="D22">
-        <f>Point!$C$6*Reward!A22</f>
+        <f>FITH_Point!$F$2 *FITH_Reward!A22</f>
         <v>2000</v>
       </c>
       <c r="E22">
-        <f>Point!$C$7+Reward!D22</f>
+        <f>FITH_Point!$D$2+FITH_Reward!D22</f>
         <v>2500</v>
       </c>
     </row>
